--- a/medicine/Handicap/Charles_Gardou/Charles_Gardou.xlsx
+++ b/medicine/Handicap/Charles_Gardou/Charles_Gardou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Gardou, né en 1953, est un anthropologue, pédagogue et professeur des universités français, spécialisé dans les questions relatives au handicap, en particulier dans les analyses culturelles du rapport des sociétés avec les personnes handicapées. 
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instituteur, directeur d'école, professeur de lettres, formateur et chef d'établissement du secondaire, Charles Gardou est élu maître de conférences en 1988 à l'Université Lumière - Lyon 2, puis promu professeur des universités en 1994. Il a été responsable du département des sciences de l'éducation et présidé la commission de spécialistes de la 70e section du CNU[1].
-Il initie en 1995 le collectif de recherche « Situations de handicap, éducation, société » (CRHES), dont Michel Serres accepte la présidence d'honneur, en lien avec le laboratoire de recherche sur les situations de handicap, l'éducation et le travail social (LAREHA) prédécesseur du DIPHE (développement, individu, processus, handicap, éducation)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instituteur, directeur d'école, professeur de lettres, formateur et chef d'établissement du secondaire, Charles Gardou est élu maître de conférences en 1988 à l'Université Lumière - Lyon 2, puis promu professeur des universités en 1994. Il a été responsable du département des sciences de l'éducation et présidé la commission de spécialistes de la 70e section du CNU.
+Il initie en 1995 le collectif de recherche « Situations de handicap, éducation, société » (CRHES), dont Michel Serres accepte la présidence d'honneur, en lien avec le laboratoire de recherche sur les situations de handicap, l'éducation et le travail social (LAREHA) prédécesseur du DIPHE (développement, individu, processus, handicap, éducation).
 Il est directeur de l'Institut des sciences et pratiques d'éducation et de formation (ISPEF) de 2003 à 2018.
-Dans son ouvrage Handicap, une encyclopédie des savoirs : Des obscurantismes à de Nouvelles Lumières (2015), il propose quatre actions en faveur d'une société inclusive : un serment éthique pour un engagement de tous les acteurs éducatifs, une obligation formative pour une évolution des cultures professionnelles, des entretiens scientifiques pour une actualisation des savoirs, enfin la création d'un Haut conseil national de la politique du handicap[3].
-Dans une interview au quotidien Le Monde, en décembre 2019[4], il estime que le retard de la France en matière de handicap s'explique par un rapport culturel qui tend à réduire les personnes handicapées à des nécessiteux[5].
-Invité sur France Culture en février 2020, il souligne quelques avancées pour les droits des personnes handicapées, en particulier l'octroi de droits à vie pour les personnes dont le handicap n'est pas susceptible d'une évolution favorable, mais déplore la surcharge des maisons départementales des personnes handicapées, et la mauvaise préparation des acteurs de la scolarisation des personnes handicapées[6].
+Dans son ouvrage Handicap, une encyclopédie des savoirs : Des obscurantismes à de Nouvelles Lumières (2015), il propose quatre actions en faveur d'une société inclusive : un serment éthique pour un engagement de tous les acteurs éducatifs, une obligation formative pour une évolution des cultures professionnelles, des entretiens scientifiques pour une actualisation des savoirs, enfin la création d'un Haut conseil national de la politique du handicap.
+Dans une interview au quotidien Le Monde, en décembre 2019, il estime que le retard de la France en matière de handicap s'explique par un rapport culturel qui tend à réduire les personnes handicapées à des nécessiteux.
+Invité sur France Culture en février 2020, il souligne quelques avancées pour les droits des personnes handicapées, en particulier l'octroi de droits à vie pour les personnes dont le handicap n'est pas susceptible d'une évolution favorable, mais déplore la surcharge des maisons départementales des personnes handicapées, et la mauvaise préparation des acteurs de la scolarisation des personnes handicapées.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La société inclusive, parlons-en ! Il n'y a pas de vie minuscule, Eres
 Fragments sur le handicap et la vulnérabilité, Eres
@@ -561,7 +577,7 @@
 (dir.) Handicap, une encyclopédie des savoirs : Des obscurantismes à de Nouvelles Lumières, Eres
 Avec Denis Poizat : Désinsulariser le handicap, Eres
 (et al.) Connaître le handicap, reconnaître la personne, Eres
-La Fragilité de source. Ce qu'elle dit des affaires humaines, Eres, 2022  (ISBN 978-2-7492-7323-5)[7]</t>
+La Fragilité de source. Ce qu'elle dit des affaires humaines, Eres, 2022  (ISBN 978-2-7492-7323-5)</t>
         </is>
       </c>
     </row>
